--- a/Records/trade.xlsx
+++ b/Records/trade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="资金" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>月份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,70 @@
   </si>
   <si>
     <t>1%（N*每笔股数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>止损位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈亏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否结单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002532</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002622</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300445</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002148</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300298</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -78,9 +142,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -452,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -511,14 +576,262 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="4" max="5" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>20160413</v>
+      </c>
+      <c r="B2" s="2">
+        <v>600213</v>
+      </c>
+      <c r="C2">
+        <v>12.9</v>
+      </c>
+      <c r="D2">
+        <v>1700</v>
+      </c>
+      <c r="E2">
+        <f>PRODUCT(C2,D2)</f>
+        <v>21930</v>
+      </c>
+      <c r="F2">
+        <v>11.5</v>
+      </c>
+      <c r="G2">
+        <f>PRODUCT(C2-F2,D2)</f>
+        <v>2380.0000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>20160413</v>
+      </c>
+      <c r="B3" s="2">
+        <v>600540</v>
+      </c>
+      <c r="C3">
+        <v>7.41</v>
+      </c>
+      <c r="D3">
+        <v>3000</v>
+      </c>
+      <c r="E3">
+        <f>PRODUCT(C3,D3)</f>
+        <v>22230</v>
+      </c>
+      <c r="F3">
+        <v>6.75</v>
+      </c>
+      <c r="G3">
+        <f>PRODUCT(C3-F3,D3)</f>
+        <v>1980.0000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>20160413</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>35.47</v>
+      </c>
+      <c r="D4">
+        <v>1300</v>
+      </c>
+      <c r="E4">
+        <f>PRODUCT(C4,D4)</f>
+        <v>46111</v>
+      </c>
+      <c r="F4">
+        <v>32.89</v>
+      </c>
+      <c r="G4">
+        <f>PRODUCT(C4-F4,D4)</f>
+        <v>3353.9999999999977</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>20160413</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>13.3</v>
+      </c>
+      <c r="D5">
+        <v>1300</v>
+      </c>
+      <c r="E5">
+        <f>PRODUCT(C5,D5)</f>
+        <v>17290</v>
+      </c>
+      <c r="F5">
+        <v>12.56</v>
+      </c>
+      <c r="G5">
+        <f>PRODUCT(C5-F5,D5)</f>
+        <v>962.00000000000023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>20160413</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>24.4</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+      <c r="E6">
+        <f>PRODUCT(C6,D6)</f>
+        <v>24400</v>
+      </c>
+      <c r="F6">
+        <v>22.89</v>
+      </c>
+      <c r="G6">
+        <f>PRODUCT(C6-F6,D6)</f>
+        <v>1509.999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>20160413</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>46.21</v>
+      </c>
+      <c r="D7">
+        <v>600</v>
+      </c>
+      <c r="E7">
+        <f>PRODUCT(C7,D7)</f>
+        <v>27726</v>
+      </c>
+      <c r="F7">
+        <v>43.48</v>
+      </c>
+      <c r="G7">
+        <f>PRODUCT(C7-F7,D7)</f>
+        <v>1638.0000000000023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>20160413</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>16.66</v>
+      </c>
+      <c r="D8">
+        <v>1800</v>
+      </c>
+      <c r="E8">
+        <f>PRODUCT(C8,D8)</f>
+        <v>29988</v>
+      </c>
+      <c r="F8">
+        <v>16.260000000000002</v>
+      </c>
+      <c r="G8">
+        <f>PRODUCT(C8-F8,D8)</f>
+        <v>719.9999999999975</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>20160413</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="D9">
+        <v>1540</v>
+      </c>
+      <c r="E9">
+        <f>PRODUCT(C9,D9)</f>
+        <v>30014.6</v>
+      </c>
+      <c r="F9">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="G9">
+        <f>PRODUCT(C9-F9,D9)</f>
+        <v>3156.9999999999955</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G17">
+        <f>SUM(G2:G16)</f>
+        <v>15700.999999999993</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Records/trade.xlsx
+++ b/Records/trade.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="1700" yWindow="0" windowWidth="24400" windowHeight="15200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="资金" sheetId="1" r:id="rId1"/>
     <sheet name="交易记录" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>月份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +104,18 @@
   </si>
   <si>
     <t>300298</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300242</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波动值（N）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.92</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,7 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +136,22 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -139,16 +172,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -236,7 +274,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -521,16 +559,16 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>20160401</v>
       </c>
@@ -570,268 +608,311 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="4" max="5" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="2"/>
+    <col min="3" max="3" width="13.33203125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>20160413</v>
       </c>
       <c r="B2" s="2">
         <v>600213</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>12.9</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1700</v>
       </c>
-      <c r="E2">
-        <f>PRODUCT(C2,D2)</f>
+      <c r="F2">
+        <f t="shared" ref="F2:F9" si="0">PRODUCT(D2,E2)</f>
         <v>21930</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>11.5</v>
       </c>
-      <c r="G2">
-        <f>PRODUCT(C2-F2,D2)</f>
+      <c r="H2">
+        <f t="shared" ref="H2:H9" si="1">PRODUCT(D2-G2,E2)</f>
         <v>2380.0000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>20160413</v>
       </c>
       <c r="B3" s="2">
         <v>600540</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>7.41</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>3000</v>
       </c>
-      <c r="E3">
-        <f>PRODUCT(C3,D3)</f>
+      <c r="F3">
+        <f t="shared" si="0"/>
         <v>22230</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>6.75</v>
       </c>
-      <c r="G3">
-        <f>PRODUCT(C3-F3,D3)</f>
+      <c r="H3">
+        <f t="shared" si="1"/>
         <v>1980.0000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>20160413</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>35.47</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1300</v>
       </c>
-      <c r="E4">
-        <f>PRODUCT(C4,D4)</f>
+      <c r="F4">
+        <f t="shared" si="0"/>
         <v>46111</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>32.89</v>
       </c>
-      <c r="G4">
-        <f>PRODUCT(C4-F4,D4)</f>
+      <c r="H4">
+        <f t="shared" si="1"/>
         <v>3353.9999999999977</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>20160413</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>13.3</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1300</v>
       </c>
-      <c r="E5">
-        <f>PRODUCT(C5,D5)</f>
+      <c r="F5">
+        <f t="shared" si="0"/>
         <v>17290</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>12.56</v>
       </c>
-      <c r="G5">
-        <f>PRODUCT(C5-F5,D5)</f>
+      <c r="H5">
+        <f t="shared" si="1"/>
         <v>962.00000000000023</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>20160413</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>24.4</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1000</v>
       </c>
-      <c r="E6">
-        <f>PRODUCT(C6,D6)</f>
+      <c r="F6">
+        <f t="shared" si="0"/>
         <v>24400</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>22.89</v>
       </c>
-      <c r="G6">
-        <f>PRODUCT(C6-F6,D6)</f>
+      <c r="H6">
+        <f t="shared" si="1"/>
         <v>1509.999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>20160413</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>46.21</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>600</v>
       </c>
-      <c r="E7">
-        <f>PRODUCT(C7,D7)</f>
+      <c r="F7">
+        <f t="shared" si="0"/>
         <v>27726</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>43.48</v>
       </c>
-      <c r="G7">
-        <f>PRODUCT(C7-F7,D7)</f>
+      <c r="H7">
+        <f t="shared" si="1"/>
         <v>1638.0000000000023</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>20160413</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>16.66</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1800</v>
       </c>
-      <c r="E8">
-        <f>PRODUCT(C8,D8)</f>
+      <c r="F8">
+        <f t="shared" si="0"/>
         <v>29988</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>16.260000000000002</v>
       </c>
-      <c r="G8">
-        <f>PRODUCT(C8-F8,D8)</f>
+      <c r="H8">
+        <f t="shared" si="1"/>
         <v>719.9999999999975</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>20160413</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>19.489999999999998</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1540</v>
       </c>
-      <c r="E9">
-        <f>PRODUCT(C9,D9)</f>
+      <c r="F9">
+        <f t="shared" si="0"/>
         <v>30014.6</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>17.440000000000001</v>
       </c>
-      <c r="G9">
-        <f>PRODUCT(C9-F9,D9)</f>
+      <c r="H9">
+        <f t="shared" si="1"/>
         <v>3156.9999999999955</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G17">
-        <f>SUM(G2:G16)</f>
-        <v>15700.999999999993</v>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>20160415</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>32.92</v>
+      </c>
+      <c r="E10">
+        <v>400</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10" si="2">PRODUCT(D10,E10)</f>
+        <v>13168</v>
+      </c>
+      <c r="G10" s="3">
+        <f>D10-C10*2</f>
+        <v>29.080000000000002</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ref="H10" si="3">PRODUCT(D10-G10,E10)</f>
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8">
+      <c r="H17">
+        <f>SUM(H2:H16)</f>
+        <v>17236.999999999993</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -841,9 +922,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Records/trade.xlsx
+++ b/Records/trade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="0" windowWidth="24400" windowHeight="15200" activeTab="1"/>
+    <workbookView xWindow="10980" yWindow="5860" windowWidth="24400" windowHeight="15200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="资金" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>月份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,11 +111,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600764</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分（600）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中电广通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新赛股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康斯特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45.94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康得新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34.39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新界泵业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚星客车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北纬通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永大集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三诺生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明家联合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34.73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮盈（亏）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>波动值（N）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.92</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,7 +263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +294,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -172,20 +319,88 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="35">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -619,22 +834,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" style="2"/>
-    <col min="3" max="3" width="13.33203125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="10.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="3" max="4" width="11.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="14" max="14" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -642,234 +860,375 @@
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>20160413</v>
       </c>
       <c r="B2" s="2">
         <v>600213</v>
       </c>
-      <c r="D2">
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2">
         <v>12.9</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>1700</v>
       </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F9" si="0">PRODUCT(D2,E2)</f>
+      <c r="H2">
+        <f t="shared" ref="H2:H9" si="0">PRODUCT(F2,G2)</f>
         <v>21930</v>
       </c>
-      <c r="G2">
-        <v>11.5</v>
-      </c>
-      <c r="H2">
-        <f t="shared" ref="H2:H9" si="1">PRODUCT(D2-G2,E2)</f>
-        <v>2380.0000000000005</v>
+      <c r="I2" s="3">
+        <f>F2-E2*2</f>
+        <v>11.48</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J9" si="1">PRODUCT(F2-I2,G2)</f>
+        <v>2414</v>
+      </c>
+      <c r="M2" s="7">
+        <f>((D2-F2)/F2)*100</f>
+        <v>13.720930232558134</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>20160413</v>
       </c>
       <c r="B3" s="2">
         <v>600540</v>
       </c>
-      <c r="D3">
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3">
         <v>7.41</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>3000</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <f t="shared" si="0"/>
         <v>22230</v>
       </c>
-      <c r="G3">
-        <v>6.75</v>
-      </c>
-      <c r="H3">
+      <c r="I3" s="3">
+        <f>F3-E3*2</f>
+        <v>6.65</v>
+      </c>
+      <c r="J3">
         <f t="shared" si="1"/>
-        <v>1980.0000000000005</v>
+        <v>2279.9999999999995</v>
+      </c>
+      <c r="M3" s="7">
+        <f t="shared" ref="M3:M11" si="2">((D3-F3)/F3)*100</f>
+        <v>15.789473684210526</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
+    <row r="4" spans="1:14" s="4" customFormat="1">
+      <c r="A4" s="4">
         <v>20160413</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4">
+      <c r="C4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="4">
         <v>35.47</v>
       </c>
-      <c r="E4">
+      <c r="G4" s="4">
         <v>1300</v>
       </c>
-      <c r="F4">
+      <c r="H4" s="4">
         <f t="shared" si="0"/>
         <v>46111</v>
       </c>
-      <c r="G4">
-        <v>32.89</v>
-      </c>
-      <c r="H4">
+      <c r="I4" s="6">
+        <f>F4-E4*2</f>
+        <v>32.97</v>
+      </c>
+      <c r="J4" s="4">
         <f t="shared" si="1"/>
-        <v>3353.9999999999977</v>
+        <v>3250</v>
+      </c>
+      <c r="K4" s="4">
+        <v>35</v>
+      </c>
+      <c r="L4" s="4">
+        <f>(K4-F4)*G4</f>
+        <v>-610.99999999999852</v>
+      </c>
+      <c r="M4" s="7">
+        <f t="shared" si="2"/>
+        <v>-3.0448266140400291</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
+    <row r="5" spans="1:14" s="4" customFormat="1">
+      <c r="A5" s="4">
         <v>20160413</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5">
+      <c r="C5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4">
         <v>13.3</v>
       </c>
-      <c r="E5">
+      <c r="G5" s="4">
         <v>1300</v>
       </c>
-      <c r="F5">
+      <c r="H5" s="4">
         <f t="shared" si="0"/>
         <v>17290</v>
       </c>
-      <c r="G5">
-        <v>12.56</v>
-      </c>
-      <c r="H5">
+      <c r="I5" s="6">
+        <f>F5-E5*2</f>
+        <v>12.360000000000001</v>
+      </c>
+      <c r="J5" s="4">
         <f t="shared" si="1"/>
-        <v>962.00000000000023</v>
+        <v>1221.9999999999993</v>
+      </c>
+      <c r="K5" s="4">
+        <v>13.31</v>
+      </c>
+      <c r="L5" s="4">
+        <f>(K5-F5)*G5</f>
+        <v>12.999999999999723</v>
+      </c>
+      <c r="M5" s="7">
+        <f t="shared" si="2"/>
+        <v>2.255639097744353</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>20160413</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6">
+      <c r="C6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6">
         <v>24.4</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>1000</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>24400</v>
       </c>
-      <c r="G6">
-        <v>22.89</v>
-      </c>
-      <c r="H6">
+      <c r="I6" s="3">
+        <f>F6-E6*2</f>
+        <v>22.32</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="1"/>
-        <v>1509.999999999998</v>
+        <v>2079.9999999999982</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" si="2"/>
+        <v>2.0491803278688527</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>20160413</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7">
+      <c r="C7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7">
         <v>46.21</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>600</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <f t="shared" si="0"/>
         <v>27726</v>
       </c>
-      <c r="G7">
-        <v>43.48</v>
-      </c>
-      <c r="H7">
+      <c r="I7" s="3">
+        <f>F7-E7*2</f>
+        <v>41.39</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="1"/>
-        <v>1638.0000000000023</v>
+        <v>2892</v>
+      </c>
+      <c r="M7" s="7">
+        <f t="shared" si="2"/>
+        <v>-0.5842891149101993</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>20160413</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8">
+      <c r="C8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8">
         <v>16.66</v>
       </c>
-      <c r="E8">
-        <v>1800</v>
-      </c>
-      <c r="F8">
+      <c r="G8">
+        <v>1000</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="0"/>
-        <v>29988</v>
-      </c>
-      <c r="G8">
-        <v>16.260000000000002</v>
-      </c>
-      <c r="H8">
+        <v>16660</v>
+      </c>
+      <c r="I8" s="3">
+        <f>F8-E8*2</f>
+        <v>15.1</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="1"/>
-        <v>719.9999999999975</v>
+        <v>1560.0000000000005</v>
+      </c>
+      <c r="M8" s="7">
+        <f t="shared" si="2"/>
+        <v>8.2833133253301252</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>20160413</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D9">
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9">
         <v>19.489999999999998</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>1540</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <f t="shared" si="0"/>
         <v>30014.6</v>
       </c>
-      <c r="G9">
-        <v>17.440000000000001</v>
-      </c>
-      <c r="H9">
+      <c r="I9" s="3">
+        <f>F9-E9*2</f>
+        <v>15.829999999999998</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="1"/>
-        <v>3156.9999999999955</v>
+        <v>5636.4000000000005</v>
+      </c>
+      <c r="M9" s="7">
+        <f t="shared" si="2"/>
+        <v>7.5423293996921634</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>20160415</v>
       </c>
@@ -877,31 +1236,80 @@
         <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>32.92</v>
+      </c>
+      <c r="G10">
+        <v>400</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ref="H10" si="3">PRODUCT(F10,G10)</f>
+        <v>13168</v>
+      </c>
+      <c r="I10" s="3">
+        <f>F10-E10*2</f>
+        <v>29.080000000000002</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ref="J10" si="4">PRODUCT(F10-I10,G10)</f>
+        <v>1536</v>
+      </c>
+      <c r="M10" s="7">
+        <f t="shared" si="2"/>
+        <v>5.4981773997569716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>20160418</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D10">
-        <v>32.92</v>
-      </c>
-      <c r="E10">
-        <v>400</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ref="F10" si="2">PRODUCT(D10,E10)</f>
-        <v>13168</v>
-      </c>
-      <c r="G10" s="3">
-        <f>D10-C10*2</f>
-        <v>29.080000000000002</v>
-      </c>
-      <c r="H10">
-        <f t="shared" ref="H10" si="3">PRODUCT(D10-G10,E10)</f>
-        <v>1536</v>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="G11">
+        <v>2000</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11" si="5">PRODUCT(F11,G11)</f>
+        <v>38020</v>
+      </c>
+      <c r="I11" s="3">
+        <f>F11-E11*2</f>
+        <v>17.090000000000003</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11" si="6">PRODUCT(F11-I11,G11)</f>
+        <v>3839.9999999999964</v>
+      </c>
+      <c r="M11" s="7">
+        <f t="shared" si="2"/>
+        <v>3.5244608100999373</v>
       </c>
     </row>
-    <row r="17" spans="8:8">
-      <c r="H17">
-        <f>SUM(H2:H16)</f>
-        <v>17236.999999999993</v>
+    <row r="16" spans="1:14">
+      <c r="J16">
+        <f>SUM(J2:J15)</f>
+        <v>26710.399999999994</v>
       </c>
     </row>
   </sheetData>

--- a/Records/trade.xlsx
+++ b/Records/trade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="5860" windowWidth="24400" windowHeight="15200" activeTab="1"/>
+    <workbookView xWindow="8760" yWindow="6280" windowWidth="24400" windowHeight="15200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="资金" sheetId="1" r:id="rId1"/>
@@ -175,34 +175,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19.68</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新赛股份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>康斯特</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>45.94</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>康得新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>34.39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新界泵业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,26 +199,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>14.67</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>北纬通信</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18.04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>永大集团</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>24.90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三诺生物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,15 +219,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>34.73</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>浮盈（亏）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>波动值（N）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34.94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46.73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34.80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -263,7 +263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +301,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.79998168889431442"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -356,7 +363,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -365,6 +372,10 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="35">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -837,7 +848,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -866,7 +877,7 @@
         <v>36</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
         <v>14</v>
@@ -890,7 +901,7 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s">
         <v>12</v>
@@ -904,10 +915,10 @@
         <v>600213</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>34</v>
@@ -923,16 +934,16 @@
         <v>21930</v>
       </c>
       <c r="I2" s="3">
-        <f>F2-E2*2</f>
+        <f t="shared" ref="I2:I11" si="1">F2-E2*2</f>
         <v>11.48</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J9" si="1">PRODUCT(F2-I2,G2)</f>
+        <f t="shared" ref="J2:J9" si="2">PRODUCT(F2-I2,G2)</f>
         <v>2414</v>
       </c>
       <c r="M2" s="7">
         <f>((D2-F2)/F2)*100</f>
-        <v>13.720930232558134</v>
+        <v>10.310077519379846</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -943,10 +954,10 @@
         <v>600540</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>33</v>
@@ -962,16 +973,16 @@
         <v>22230</v>
       </c>
       <c r="I3" s="3">
-        <f>F3-E3*2</f>
+        <f t="shared" si="1"/>
         <v>6.65</v>
       </c>
       <c r="J3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2279.9999999999995</v>
       </c>
       <c r="M3" s="7">
-        <f t="shared" ref="M3:M11" si="2">((D3-F3)/F3)*100</f>
-        <v>15.789473684210526</v>
+        <f t="shared" ref="M3:M11" si="3">((D3-F3)/F3)*100</f>
+        <v>13.090418353576258</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="4" customFormat="1">
@@ -982,10 +993,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>32</v>
@@ -1001,11 +1012,11 @@
         <v>46111</v>
       </c>
       <c r="I4" s="6">
-        <f>F4-E4*2</f>
+        <f t="shared" si="1"/>
         <v>32.97</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3250</v>
       </c>
       <c r="K4" s="4">
@@ -1016,59 +1027,59 @@
         <v>-610.99999999999852</v>
       </c>
       <c r="M4" s="7">
-        <f t="shared" si="2"/>
-        <v>-3.0448266140400291</v>
+        <f t="shared" si="3"/>
+        <v>-1.4942204680011311</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="4" customFormat="1">
-      <c r="A5" s="4">
+    <row r="5" spans="1:14" s="8" customFormat="1">
+      <c r="A5" s="8">
         <v>20160413</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="8">
         <v>13.3</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="8">
         <v>1300</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="8">
         <f t="shared" si="0"/>
         <v>17290</v>
       </c>
-      <c r="I5" s="6">
-        <f>F5-E5*2</f>
+      <c r="I5" s="10">
+        <f t="shared" si="1"/>
         <v>12.360000000000001</v>
       </c>
-      <c r="J5" s="4">
-        <f t="shared" si="1"/>
+      <c r="J5" s="8">
+        <f t="shared" si="2"/>
         <v>1221.9999999999993</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="8">
         <v>13.31</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="8">
         <f>(K5-F5)*G5</f>
         <v>12.999999999999723</v>
       </c>
-      <c r="M5" s="7">
-        <f t="shared" si="2"/>
+      <c r="M5" s="11">
+        <f t="shared" si="3"/>
         <v>2.255639097744353</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1080,10 +1091,10 @@
         <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>30</v>
@@ -1099,16 +1110,16 @@
         <v>24400</v>
       </c>
       <c r="I6" s="3">
-        <f>F6-E6*2</f>
+        <f t="shared" si="1"/>
         <v>22.32</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2079.9999999999982</v>
       </c>
       <c r="M6" s="7">
-        <f t="shared" si="2"/>
-        <v>2.0491803278688527</v>
+        <f t="shared" si="3"/>
+        <v>2.5819672131147646</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1119,10 +1130,10 @@
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>29</v>
@@ -1138,16 +1149,16 @@
         <v>27726</v>
       </c>
       <c r="I7" s="3">
-        <f>F7-E7*2</f>
+        <f t="shared" si="1"/>
         <v>41.39</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2892</v>
       </c>
       <c r="M7" s="7">
-        <f t="shared" si="2"/>
-        <v>-0.5842891149101993</v>
+        <f t="shared" si="3"/>
+        <v>1.1252975546418438</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1158,10 +1169,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>28</v>
@@ -1177,16 +1188,16 @@
         <v>16660</v>
       </c>
       <c r="I8" s="3">
-        <f>F8-E8*2</f>
+        <f t="shared" si="1"/>
         <v>15.1</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1560.0000000000005</v>
       </c>
       <c r="M8" s="7">
-        <f t="shared" si="2"/>
-        <v>8.2833133253301252</v>
+        <f t="shared" si="3"/>
+        <v>7.4429771908763414</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1197,10 +1208,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>27</v>
@@ -1216,15 +1227,15 @@
         <v>30014.6</v>
       </c>
       <c r="I9" s="3">
-        <f>F9-E9*2</f>
+        <f t="shared" si="1"/>
         <v>15.829999999999998</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5636.4000000000005</v>
       </c>
       <c r="M9" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.5423293996921634</v>
       </c>
     </row>
@@ -1236,10 +1247,10 @@
         <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -1251,20 +1262,20 @@
         <v>400</v>
       </c>
       <c r="H10">
-        <f t="shared" ref="H10" si="3">PRODUCT(F10,G10)</f>
+        <f t="shared" ref="H10" si="4">PRODUCT(F10,G10)</f>
         <v>13168</v>
       </c>
       <c r="I10" s="3">
-        <f>F10-E10*2</f>
+        <f t="shared" si="1"/>
         <v>29.080000000000002</v>
       </c>
       <c r="J10">
-        <f t="shared" ref="J10" si="4">PRODUCT(F10-I10,G10)</f>
+        <f t="shared" ref="J10" si="5">PRODUCT(F10-I10,G10)</f>
         <v>1536</v>
       </c>
       <c r="M10" s="7">
-        <f t="shared" si="2"/>
-        <v>5.4981773997569716</v>
+        <f t="shared" si="3"/>
+        <v>5.7108140947751984</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1278,7 +1289,7 @@
         <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -1290,20 +1301,20 @@
         <v>2000</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11" si="5">PRODUCT(F11,G11)</f>
+        <f t="shared" ref="H11" si="6">PRODUCT(F11,G11)</f>
         <v>38020</v>
       </c>
       <c r="I11" s="3">
-        <f>F11-E11*2</f>
+        <f t="shared" si="1"/>
         <v>17.090000000000003</v>
       </c>
       <c r="J11">
-        <f t="shared" ref="J11" si="6">PRODUCT(F11-I11,G11)</f>
+        <f t="shared" ref="J11" si="7">PRODUCT(F11-I11,G11)</f>
         <v>3839.9999999999964</v>
       </c>
       <c r="M11" s="7">
-        <f t="shared" si="2"/>
-        <v>3.5244608100999373</v>
+        <f t="shared" si="3"/>
+        <v>5.4182009468700549</v>
       </c>
     </row>
     <row r="16" spans="1:14">

--- a/Records/trade.xlsx
+++ b/Records/trade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="6280" windowWidth="24400" windowHeight="15200" activeTab="1"/>
+    <workbookView xWindow="7920" yWindow="2760" windowWidth="24400" windowHeight="15200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="资金" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>月份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>部分（600）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.83</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,10 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20.04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>14.23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,11 +243,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>34.80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>25.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -263,7 +275,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,14 +308,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="4"/>
+      <color theme="3" tint="0.79998168889431442"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="3" tint="0.79998168889431442"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.59999389629810485"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -326,7 +345,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -362,22 +381,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="47">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -395,6 +431,12 @@
     <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -412,6 +454,12 @@
     <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -848,7 +896,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -871,13 +919,13 @@
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
         <v>14</v>
@@ -901,303 +949,332 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2">
+    <row r="2" spans="1:14" s="13" customFormat="1">
+      <c r="A2" s="13">
         <v>20160413</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="14">
         <v>600213</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2">
+      <c r="C2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="13">
         <v>12.9</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="13">
         <v>1700</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="13">
         <f t="shared" ref="H2:H9" si="0">PRODUCT(F2,G2)</f>
         <v>21930</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="15">
         <f t="shared" ref="I2:I11" si="1">F2-E2*2</f>
         <v>11.48</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="13">
         <f t="shared" ref="J2:J9" si="2">PRODUCT(F2-I2,G2)</f>
         <v>2414</v>
       </c>
-      <c r="M2" s="7">
-        <f>((D2-F2)/F2)*100</f>
-        <v>10.310077519379846</v>
+      <c r="K2" s="13">
+        <v>12.93</v>
+      </c>
+      <c r="L2" s="13">
+        <f>(K2-F2)*G2</f>
+        <v>50.999999999998913</v>
+      </c>
+      <c r="M2" s="16"/>
+      <c r="N2" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3">
+    <row r="3" spans="1:14" s="13" customFormat="1">
+      <c r="A3" s="13">
         <v>20160413</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="14">
         <v>600540</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3">
+      <c r="C3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="13">
         <v>7.41</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="13">
         <v>3000</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="13">
         <f t="shared" si="0"/>
         <v>22230</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="15">
         <f t="shared" si="1"/>
         <v>6.65</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="13">
         <f t="shared" si="2"/>
         <v>2279.9999999999995</v>
       </c>
-      <c r="M3" s="7">
-        <f t="shared" ref="M3:M11" si="3">((D3-F3)/F3)*100</f>
-        <v>13.090418353576258</v>
+      <c r="K3" s="13">
+        <v>8.52</v>
+      </c>
+      <c r="L3" s="13">
+        <f>(K3-F3)*G3</f>
+        <v>3329.9999999999982</v>
+      </c>
+      <c r="M3" s="16"/>
+      <c r="N3" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1">
-      <c r="A4" s="4">
+    <row r="4" spans="1:14" s="9" customFormat="1">
+      <c r="A4" s="9">
         <v>20160413</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="C4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="9">
         <v>35.47</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="9">
         <v>1300</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="9">
         <f t="shared" si="0"/>
         <v>46111</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="11">
         <f t="shared" si="1"/>
         <v>32.97</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="9">
         <f t="shared" si="2"/>
         <v>3250</v>
       </c>
-      <c r="K4" s="4">
-        <v>35</v>
-      </c>
-      <c r="L4" s="4">
+      <c r="K4" s="9">
+        <v>33.020000000000003</v>
+      </c>
+      <c r="L4" s="9">
         <f>(K4-F4)*G4</f>
-        <v>-610.99999999999852</v>
-      </c>
-      <c r="M4" s="7">
-        <f t="shared" si="3"/>
-        <v>-1.4942204680011311</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>26</v>
+        <v>-3184.9999999999945</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="8" customFormat="1">
-      <c r="A5" s="8">
+    <row r="5" spans="1:14" s="5" customFormat="1">
+      <c r="A5" s="5">
         <v>20160413</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="E5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="5">
         <v>13.3</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="5">
         <v>1300</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="5">
         <f t="shared" si="0"/>
         <v>17290</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="7">
         <f t="shared" si="1"/>
         <v>12.360000000000001</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="5">
         <f t="shared" si="2"/>
         <v>1221.9999999999993</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="5">
         <v>13.31</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="5">
         <f>(K5-F5)*G5</f>
         <v>12.999999999999723</v>
       </c>
-      <c r="M5" s="11">
-        <f t="shared" si="3"/>
-        <v>2.255639097744353</v>
-      </c>
-      <c r="N5" s="8" t="s">
+      <c r="M5" s="8"/>
+      <c r="N5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6">
+    <row r="6" spans="1:14" s="9" customFormat="1">
+      <c r="A6" s="9">
         <v>20160413</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6">
+      <c r="C6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="9">
         <v>24.4</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="9">
         <v>1000</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="9">
         <f t="shared" si="0"/>
         <v>24400</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="11">
         <f t="shared" si="1"/>
         <v>22.32</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="9">
         <f t="shared" si="2"/>
         <v>2079.9999999999982</v>
       </c>
-      <c r="M6" s="7">
-        <f t="shared" si="3"/>
-        <v>2.5819672131147646</v>
+      <c r="K6" s="9">
+        <v>22.93</v>
+      </c>
+      <c r="L6" s="9">
+        <f>(K6-F6)*G6</f>
+        <v>-1469.9999999999989</v>
+      </c>
+      <c r="M6" s="12"/>
+      <c r="N6" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7">
+    <row r="7" spans="1:14" s="9" customFormat="1">
+      <c r="A7" s="9">
         <v>20160413</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7">
+      <c r="C7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="9">
         <v>46.21</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="9">
         <v>600</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="9">
         <f t="shared" si="0"/>
         <v>27726</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="11">
         <f t="shared" si="1"/>
         <v>41.39</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="9">
         <f t="shared" si="2"/>
         <v>2892</v>
       </c>
-      <c r="M7" s="7">
-        <f t="shared" si="3"/>
-        <v>1.1252975546418438</v>
+      <c r="K7" s="9">
+        <v>42.64</v>
+      </c>
+      <c r="L7" s="9">
+        <f>(K7-F7)*G7</f>
+        <v>-2142</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8">
+    <row r="8" spans="1:14" s="9" customFormat="1">
+      <c r="A8" s="9">
         <v>20160413</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8">
+      <c r="C8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="9">
         <v>16.66</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="9">
         <v>1000</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="9">
         <f t="shared" si="0"/>
         <v>16660</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="11">
         <f t="shared" si="1"/>
         <v>15.1</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="9">
         <f t="shared" si="2"/>
         <v>1560.0000000000005</v>
       </c>
-      <c r="M8" s="7">
-        <f t="shared" si="3"/>
-        <v>7.4429771908763414</v>
+      <c r="K8" s="9">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="L8" s="9">
+        <f>(K8-F8)*G8</f>
+        <v>-59.999999999998721</v>
+      </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1208,13 +1285,13 @@
         <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9">
         <v>19.489999999999998</v>
@@ -1234,8 +1311,8 @@
         <f t="shared" si="2"/>
         <v>5636.4000000000005</v>
       </c>
-      <c r="M9" s="7">
-        <f t="shared" si="3"/>
+      <c r="M9" s="4">
+        <f t="shared" ref="M3:M11" si="3">((D9-F9)/F9)*100</f>
         <v>7.5423293996921634</v>
       </c>
     </row>
@@ -1247,10 +1324,10 @@
         <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -1273,9 +1350,9 @@
         <f t="shared" ref="J10" si="5">PRODUCT(F10-I10,G10)</f>
         <v>1536</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="4">
         <f t="shared" si="3"/>
-        <v>5.7108140947751984</v>
+        <v>0.4252733900364537</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1286,10 +1363,10 @@
         <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -1301,7 +1378,7 @@
         <v>2000</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11" si="6">PRODUCT(F11,G11)</f>
+        <f t="shared" ref="H11:H12" si="6">PRODUCT(F11,G11)</f>
         <v>38020</v>
       </c>
       <c r="I11" s="3">
@@ -1309,18 +1386,57 @@
         <v>17.090000000000003</v>
       </c>
       <c r="J11">
-        <f t="shared" ref="J11" si="7">PRODUCT(F11-I11,G11)</f>
+        <f t="shared" ref="J11:J12" si="7">PRODUCT(F11-I11,G11)</f>
         <v>3839.9999999999964</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="4">
         <f t="shared" si="3"/>
-        <v>5.4182009468700549</v>
+        <v>4.3661230931088806</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>20160420</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12">
+        <v>33.4</v>
+      </c>
+      <c r="G12">
+        <v>1000</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="6"/>
+        <v>33400</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" ref="I12" si="8">F12-E12*2</f>
+        <v>29.279999999999998</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="7"/>
+        <v>4120.0000000000009</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" ref="M12" si="9">((D12-F12)/F12)*100</f>
+        <v>-1.0179640718562764</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="J16">
         <f>SUM(J2:J15)</f>
-        <v>26710.399999999994</v>
+        <v>30830.399999999994</v>
       </c>
     </row>
   </sheetData>

--- a/Records/trade.xlsx
+++ b/Records/trade.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="2760" windowWidth="24400" windowHeight="15200" activeTab="1"/>
+    <workbookView xWindow="7920" yWindow="2760" windowWidth="24240" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="资金" sheetId="1" r:id="rId1"/>
     <sheet name="交易记录" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>月份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,15 +259,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19.84</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33.06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600395</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘江股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33.71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.53</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -308,13 +324,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="3" tint="0.79998168889431442"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -324,6 +333,14 @@
       <sz val="11"/>
       <color theme="3" tint="0.59999389629810485"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.59999389629810485"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -414,6 +431,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="47">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -437,30 +455,29 @@
     <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -548,7 +565,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -830,19 +847,19 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -859,7 +876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>20160401</v>
       </c>
@@ -882,7 +899,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -893,25 +910,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="2"/>
-    <col min="3" max="4" width="11.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="2"/>
+    <col min="3" max="4" width="11.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.375" customWidth="1"/>
+    <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="16.83203125" customWidth="1"/>
+    <col min="14" max="14" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -955,329 +972,329 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1">
-      <c r="A2" s="13">
+    <row r="2" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9">
         <v>20160413</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="10">
         <v>600213</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="9">
         <v>12.9</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="9">
         <v>1700</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="9">
         <f t="shared" ref="H2:H9" si="0">PRODUCT(F2,G2)</f>
         <v>21930</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="11">
         <f t="shared" ref="I2:I11" si="1">F2-E2*2</f>
         <v>11.48</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="9">
         <f t="shared" ref="J2:J9" si="2">PRODUCT(F2-I2,G2)</f>
         <v>2414</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="9">
         <v>12.93</v>
       </c>
-      <c r="L2" s="13">
-        <f>(K2-F2)*G2</f>
+      <c r="L2" s="9">
+        <f t="shared" ref="L2:L8" si="3">(K2-F2)*G2</f>
         <v>50.999999999998913</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="13" t="s">
+      <c r="M2" s="12"/>
+      <c r="N2" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="13" customFormat="1">
-      <c r="A3" s="13">
+    <row r="3" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9">
         <v>20160413</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="10">
         <v>600540</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="9">
         <v>7.41</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="9">
         <v>3000</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="9">
         <f t="shared" si="0"/>
         <v>22230</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="11">
         <f t="shared" si="1"/>
         <v>6.65</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="9">
         <f t="shared" si="2"/>
         <v>2279.9999999999995</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="9">
         <v>8.52</v>
       </c>
-      <c r="L3" s="13">
-        <f>(K3-F3)*G3</f>
+      <c r="L3" s="9">
+        <f t="shared" si="3"/>
         <v>3329.9999999999982</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="13" t="s">
+      <c r="M3" s="12"/>
+      <c r="N3" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="9" customFormat="1">
-      <c r="A4" s="9">
+    <row r="4" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
         <v>20160413</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="5">
         <v>35.47</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="5">
         <v>1300</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="5">
         <f t="shared" si="0"/>
         <v>46111</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="7">
         <f t="shared" si="1"/>
         <v>32.97</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="5">
         <f t="shared" si="2"/>
         <v>3250</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="5">
         <v>33.020000000000003</v>
       </c>
-      <c r="L4" s="9">
-        <f>(K4-F4)*G4</f>
+      <c r="L4" s="5">
+        <f t="shared" si="3"/>
         <v>-3184.9999999999945</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="9" t="s">
+      <c r="M4" s="8"/>
+      <c r="N4" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="5" customFormat="1">
-      <c r="A5" s="5">
+    <row r="5" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="13">
         <v>20160413</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="13">
         <v>13.3</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="13">
         <v>1300</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="13">
         <f t="shared" si="0"/>
         <v>17290</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="15">
         <f t="shared" si="1"/>
         <v>12.360000000000001</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="13">
         <f t="shared" si="2"/>
         <v>1221.9999999999993</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="13">
         <v>13.31</v>
       </c>
-      <c r="L5" s="5">
-        <f>(K5-F5)*G5</f>
+      <c r="L5" s="13">
+        <f t="shared" si="3"/>
         <v>12.999999999999723</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="5" t="s">
+      <c r="M5" s="16"/>
+      <c r="N5" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="9" customFormat="1">
-      <c r="A6" s="9">
+    <row r="6" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
         <v>20160413</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="5">
         <v>24.4</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="5">
         <v>1000</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="5">
         <f t="shared" si="0"/>
         <v>24400</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="7">
         <f t="shared" si="1"/>
         <v>22.32</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="5">
         <f t="shared" si="2"/>
         <v>2079.9999999999982</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="5">
         <v>22.93</v>
       </c>
-      <c r="L6" s="9">
-        <f>(K6-F6)*G6</f>
+      <c r="L6" s="5">
+        <f t="shared" si="3"/>
         <v>-1469.9999999999989</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="9" t="s">
+      <c r="M6" s="8"/>
+      <c r="N6" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="9" customFormat="1">
-      <c r="A7" s="9">
+    <row r="7" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
         <v>20160413</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="5">
         <v>46.21</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="5">
         <v>600</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="5">
         <f t="shared" si="0"/>
         <v>27726</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="7">
         <f t="shared" si="1"/>
         <v>41.39</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="5">
         <f t="shared" si="2"/>
         <v>2892</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="5">
         <v>42.64</v>
       </c>
-      <c r="L7" s="9">
-        <f>(K7-F7)*G7</f>
+      <c r="L7" s="5">
+        <f t="shared" si="3"/>
         <v>-2142</v>
       </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="9" t="s">
+      <c r="M7" s="8"/>
+      <c r="N7" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="9" customFormat="1">
-      <c r="A8" s="9">
+    <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
         <v>20160413</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="5">
         <v>16.66</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="5">
         <v>1000</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="5">
         <f t="shared" si="0"/>
         <v>16660</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="7">
         <f t="shared" si="1"/>
         <v>15.1</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="5">
         <f t="shared" si="2"/>
         <v>1560.0000000000005</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="5">
         <v>16.600000000000001</v>
       </c>
-      <c r="L8" s="9">
-        <f>(K8-F8)*G8</f>
+      <c r="L8" s="5">
+        <f t="shared" si="3"/>
         <v>-59.999999999998721</v>
       </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="9" t="s">
+      <c r="M8" s="8"/>
+      <c r="N8" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>20160413</v>
       </c>
@@ -1312,11 +1329,11 @@
         <v>5636.4000000000005</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" ref="M3:M11" si="3">((D9-F9)/F9)*100</f>
+        <f t="shared" ref="M9:M11" si="4">((D9-F9)/F9)*100</f>
         <v>7.5423293996921634</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>20160415</v>
       </c>
@@ -1327,7 +1344,7 @@
         <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -1339,7 +1356,7 @@
         <v>400</v>
       </c>
       <c r="H10">
-        <f t="shared" ref="H10" si="4">PRODUCT(F10,G10)</f>
+        <f t="shared" ref="H10" si="5">PRODUCT(F10,G10)</f>
         <v>13168</v>
       </c>
       <c r="I10" s="3">
@@ -1347,15 +1364,15 @@
         <v>29.080000000000002</v>
       </c>
       <c r="J10">
-        <f t="shared" ref="J10" si="5">PRODUCT(F10-I10,G10)</f>
+        <f t="shared" ref="J10" si="6">PRODUCT(F10-I10,G10)</f>
         <v>1536</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" si="3"/>
-        <v>0.4252733900364537</v>
+        <f t="shared" si="4"/>
+        <v>2.3997569866342623</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>20160418</v>
       </c>
@@ -1366,7 +1383,7 @@
         <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -1378,7 +1395,7 @@
         <v>2000</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:H12" si="6">PRODUCT(F11,G11)</f>
+        <f t="shared" ref="H11:H12" si="7">PRODUCT(F11,G11)</f>
         <v>38020</v>
       </c>
       <c r="I11" s="3">
@@ -1386,15 +1403,15 @@
         <v>17.090000000000003</v>
       </c>
       <c r="J11">
-        <f t="shared" ref="J11:J12" si="7">PRODUCT(F11-I11,G11)</f>
+        <f t="shared" ref="J11:J12" si="8">PRODUCT(F11-I11,G11)</f>
         <v>3839.9999999999964</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" si="3"/>
-        <v>4.3661230931088806</v>
+        <f t="shared" si="4"/>
+        <v>2.735402419779061</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>20160420</v>
       </c>
@@ -1405,10 +1422,10 @@
         <v>47</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F12">
         <v>33.4</v>
@@ -1417,26 +1434,69 @@
         <v>1000</v>
       </c>
       <c r="H12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33400</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" ref="I12" si="8">F12-E12*2</f>
+        <f t="shared" ref="I12" si="9">F12-E12*2</f>
         <v>29.279999999999998</v>
       </c>
       <c r="J12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4120.0000000000009</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" ref="M12" si="9">((D12-F12)/F12)*100</f>
-        <v>-1.0179640718562764</v>
+        <f t="shared" ref="M12" si="10">((D12-F12)/F12)*100</f>
+        <v>0.92814371257485717</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="J16">
-        <f>SUM(J2:J15)</f>
-        <v>30830.399999999994</v>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>20160420</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13">
+        <v>11.4</v>
+      </c>
+      <c r="G13">
+        <v>4200</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13" si="11">PRODUCT(F13,G13)</f>
+        <v>47880</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" ref="I13" si="12">F13-E13*2</f>
+        <v>10.08</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13" si="13">PRODUCT(F13-I13,G13)</f>
+        <v>5544.0000000000009</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" ref="M13" si="14">((D13-F13)/F13)*100</f>
+        <v>-1.5789473684210502</v>
+      </c>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="J18">
+        <f>SUM(J9:J13)</f>
+        <v>20676.399999999998</v>
+      </c>
+      <c r="L18">
+        <f>SUM(L2:L17)</f>
+        <v>-3462.999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -1457,7 +1517,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Records/trade.xlsx
+++ b/Records/trade.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="2760" windowWidth="24240" windowHeight="13740" activeTab="1"/>
+    <workbookView xWindow="39140" yWindow="40" windowWidth="24240" windowHeight="15260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="资金" sheetId="1" r:id="rId1"/>
     <sheet name="交易记录" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -271,19 +271,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11.22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.66</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>33.71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.53</t>
+    <t>37.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.79</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,7 +431,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="47">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -455,29 +454,30 @@
     <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -565,7 +565,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -850,16 +850,16 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -876,7 +876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>20160401</v>
       </c>
@@ -899,7 +899,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -913,22 +913,22 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="2"/>
-    <col min="3" max="4" width="11.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.375" customWidth="1"/>
-    <col min="10" max="10" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="2"/>
+    <col min="3" max="4" width="11.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="16.875" customWidth="1"/>
+    <col min="14" max="14" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -972,7 +972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" s="9" customFormat="1">
       <c r="A2" s="9">
         <v>20160413</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" s="9" customFormat="1">
       <c r="A3" s="9">
         <v>20160413</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" s="5" customFormat="1">
       <c r="A4" s="5">
         <v>20160413</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" s="13" customFormat="1">
       <c r="A5" s="13">
         <v>20160413</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" s="5" customFormat="1">
       <c r="A6" s="5">
         <v>20160413</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" s="5" customFormat="1">
       <c r="A7" s="5">
         <v>20160413</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" s="5" customFormat="1">
       <c r="A8" s="5">
         <v>20160413</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>20160413</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>7.5423293996921634</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>20160415</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -1369,10 +1369,10 @@
       </c>
       <c r="M10" s="4">
         <f t="shared" si="4"/>
-        <v>2.3997569866342623</v>
+        <v>12.636695018225991</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>20160418</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -1408,10 +1408,10 @@
       </c>
       <c r="M11" s="4">
         <f t="shared" si="4"/>
-        <v>2.735402419779061</v>
+        <v>3.7348763808521688</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>20160420</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>47</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>59</v>
@@ -1447,10 +1447,10 @@
       </c>
       <c r="M12" s="4">
         <f t="shared" ref="M12" si="10">((D12-F12)/F12)*100</f>
-        <v>0.92814371257485717</v>
+        <v>11.017964071856287</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>20160420</v>
       </c>
@@ -1461,10 +1461,10 @@
         <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F13">
         <v>11.4</v>
@@ -1486,10 +1486,10 @@
       </c>
       <c r="M13" s="4">
         <f t="shared" ref="M13" si="14">((D13-F13)/F13)*100</f>
-        <v>-1.5789473684210502</v>
+        <v>-5.3508771929824661</v>
       </c>
     </row>
-    <row r="18" spans="10:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="10:12">
       <c r="J18">
         <f>SUM(J9:J13)</f>
         <v>20676.399999999998</v>
@@ -1517,7 +1517,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Records/trade.xlsx
+++ b/Records/trade.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="39140" yWindow="40" windowWidth="24240" windowHeight="15260" activeTab="1"/>
+    <workbookView xWindow="39135" yWindow="45" windowWidth="24240" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="资金" sheetId="1" r:id="rId1"/>
     <sheet name="交易记录" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -275,15 +275,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>37.08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.72</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.79</t>
+    <t>19.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,6 +431,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="47">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -454,30 +455,29 @@
     <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -565,7 +565,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -850,16 +850,16 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -876,7 +876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>20160401</v>
       </c>
@@ -899,7 +899,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -913,22 +913,22 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="2"/>
-    <col min="3" max="4" width="11.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="2"/>
+    <col min="3" max="4" width="11.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.375" customWidth="1"/>
+    <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="16.83203125" customWidth="1"/>
+    <col min="14" max="14" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -972,7 +972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1">
+    <row r="2" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <v>20160413</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="9" customFormat="1">
+    <row r="3" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>20160413</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="5" customFormat="1">
+    <row r="4" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>20160413</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="13" customFormat="1">
+    <row r="5" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>20160413</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1">
+    <row r="6" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>20160413</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="5" customFormat="1">
+    <row r="7" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>20160413</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="5" customFormat="1">
+    <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>20160413</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>20160413</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>7.5423293996921634</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>20160415</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -1369,10 +1369,10 @@
       </c>
       <c r="M10" s="4">
         <f t="shared" si="4"/>
-        <v>12.636695018225991</v>
+        <v>13.031591737545561</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>20160418</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -1408,10 +1408,10 @@
       </c>
       <c r="M11" s="4">
         <f t="shared" si="4"/>
-        <v>3.7348763808521688</v>
+        <v>2.0515518148342817</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>20160420</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>47</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>59</v>
@@ -1447,10 +1447,10 @@
       </c>
       <c r="M12" s="4">
         <f t="shared" ref="M12" si="10">((D12-F12)/F12)*100</f>
-        <v>11.017964071856287</v>
+        <v>11.407185628742521</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>20160420</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>62</v>
@@ -1486,10 +1486,10 @@
       </c>
       <c r="M13" s="4">
         <f t="shared" ref="M13" si="14">((D13-F13)/F13)*100</f>
-        <v>-5.3508771929824661</v>
+        <v>0.70175438596491291</v>
       </c>
     </row>
-    <row r="18" spans="10:12">
+    <row r="18" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J18">
         <f>SUM(J9:J13)</f>
         <v>20676.399999999998</v>
@@ -1517,7 +1517,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Records/trade.xlsx
+++ b/Records/trade.xlsx
@@ -275,15 +275,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19.40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37.21</t>
+    <t>19.98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36.85</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -913,7 +913,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="M10" s="4">
         <f t="shared" si="4"/>
-        <v>13.031591737545561</v>
+        <v>11.938031591737545</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="M11" s="4">
         <f t="shared" si="4"/>
-        <v>2.0515518148342817</v>
+        <v>5.102577590741709</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="M12" s="4">
         <f t="shared" ref="M12" si="10">((D12-F12)/F12)*100</f>
-        <v>11.407185628742521</v>
+        <v>10.329341317365278</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="M13" s="4">
         <f t="shared" ref="M13" si="14">((D13-F13)/F13)*100</f>
-        <v>0.70175438596491291</v>
+        <v>0.43859649122806077</v>
       </c>
     </row>
     <row r="18" spans="10:12" x14ac:dyDescent="0.15">
@@ -1502,7 +1502,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Records/trade.xlsx
+++ b/Records/trade.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="39135" yWindow="45" windowWidth="24240" windowHeight="13740" activeTab="1"/>
+    <workbookView xWindow="39140" yWindow="40" windowWidth="24240" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="资金" sheetId="1" r:id="rId1"/>
     <sheet name="交易记录" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t>月份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,6 +284,42 @@
   </si>
   <si>
     <t>36.85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速上涨；加仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体N值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可买入股数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -362,8 +398,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -430,8 +468,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="47">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -455,29 +492,32 @@
     <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -565,7 +605,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -844,22 +884,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -875,8 +917,14 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>20160401</v>
       </c>
@@ -894,12 +942,19 @@
       <c r="E2">
         <f>PRODUCT(B2,0.06)</f>
         <v>16560</v>
+      </c>
+      <c r="F2">
+        <v>2.12</v>
+      </c>
+      <c r="G2">
+        <f>C2/F2</f>
+        <v>1301.8867924528302</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -910,25 +965,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="2"/>
-    <col min="3" max="4" width="11.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.375" customWidth="1"/>
-    <col min="10" max="10" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="2"/>
+    <col min="3" max="4" width="11.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="16.875" customWidth="1"/>
+    <col min="14" max="14" width="16.83203125" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -971,8 +1027,14 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="9" customFormat="1">
       <c r="A2" s="9">
         <v>20160413</v>
       </c>
@@ -1018,7 +1080,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" s="9" customFormat="1">
       <c r="A3" s="9">
         <v>20160413</v>
       </c>
@@ -1064,7 +1126,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" s="5" customFormat="1">
       <c r="A4" s="5">
         <v>20160413</v>
       </c>
@@ -1110,7 +1172,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" s="13" customFormat="1">
       <c r="A5" s="13">
         <v>20160413</v>
       </c>
@@ -1156,7 +1218,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="5" customFormat="1">
       <c r="A6" s="5">
         <v>20160413</v>
       </c>
@@ -1202,7 +1264,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="5" customFormat="1">
       <c r="A7" s="5">
         <v>20160413</v>
       </c>
@@ -1248,7 +1310,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" s="5" customFormat="1">
       <c r="A8" s="5">
         <v>20160413</v>
       </c>
@@ -1294,7 +1356,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>20160413</v>
       </c>
@@ -1333,7 +1395,7 @@
         <v>7.5423293996921634</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>20160415</v>
       </c>
@@ -1359,20 +1421,19 @@
         <f t="shared" ref="H10" si="5">PRODUCT(F10,G10)</f>
         <v>13168</v>
       </c>
-      <c r="I10" s="3">
-        <f t="shared" si="1"/>
-        <v>29.080000000000002</v>
+      <c r="I10" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="J10">
         <f t="shared" ref="J10" si="6">PRODUCT(F10-I10,G10)</f>
-        <v>1536</v>
+        <v>-191.99999999999875</v>
       </c>
       <c r="M10" s="4">
         <f t="shared" si="4"/>
         <v>11.938031591737545</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>20160418</v>
       </c>
@@ -1411,7 +1472,7 @@
         <v>5.102577590741709</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>20160420</v>
       </c>
@@ -1437,20 +1498,19 @@
         <f t="shared" si="7"/>
         <v>33400</v>
       </c>
-      <c r="I12" s="3">
-        <f t="shared" ref="I12" si="9">F12-E12*2</f>
-        <v>29.279999999999998</v>
+      <c r="I12" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="J12">
         <f t="shared" si="8"/>
-        <v>4120.0000000000009</v>
+        <v>0</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" ref="M12" si="10">((D12-F12)/F12)*100</f>
+        <f t="shared" ref="M12" si="9">((D12-F12)/F12)*100</f>
         <v>10.329341317365278</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>20160420</v>
       </c>
@@ -1473,26 +1533,68 @@
         <v>4200</v>
       </c>
       <c r="H13">
-        <f t="shared" ref="H13" si="11">PRODUCT(F13,G13)</f>
+        <f t="shared" ref="H13:H14" si="10">PRODUCT(F13,G13)</f>
         <v>47880</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" ref="I13" si="12">F13-E13*2</f>
+        <f t="shared" ref="I13:I14" si="11">F13-E13*2</f>
         <v>10.08</v>
       </c>
       <c r="J13">
-        <f t="shared" ref="J13" si="13">PRODUCT(F13-I13,G13)</f>
+        <f t="shared" ref="J13:J14" si="12">PRODUCT(F13-I13,G13)</f>
         <v>5544.0000000000009</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" ref="M13" si="14">((D13-F13)/F13)*100</f>
+        <f t="shared" ref="M13:M14" si="13">((D13-F13)/F13)*100</f>
         <v>0.43859649122806077</v>
       </c>
     </row>
-    <row r="18" spans="10:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>20160427</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14">
+        <v>38.26</v>
+      </c>
+      <c r="G14">
+        <v>1300</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="10"/>
+        <v>49738</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="11"/>
+        <v>34.019999999999996</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="12"/>
+        <v>5512.0000000000027</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="13"/>
+        <v>-0.15682174594875894</v>
+      </c>
+      <c r="O14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="10:12">
       <c r="J18">
         <f>SUM(J9:J13)</f>
-        <v>20676.399999999998</v>
+        <v>14828.399999999998</v>
       </c>
       <c r="L18">
         <f>SUM(L2:L17)</f>
@@ -1502,7 +1604,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1517,7 +1619,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Records/trade.xlsx
+++ b/Records/trade.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="39140" yWindow="40" windowWidth="24240" windowHeight="13740" activeTab="1"/>
+    <workbookView xWindow="39135" yWindow="45" windowWidth="24240" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="资金" sheetId="1" r:id="rId1"/>
     <sheet name="交易记录" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t>月份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,22 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19.98</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36.85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>38.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -320,6 +304,18 @@
   </si>
   <si>
     <t>可买入股数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38.81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,6 +465,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -493,31 +490,30 @@
     <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -605,7 +601,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -886,22 +882,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -918,13 +914,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>20160401</v>
       </c>
@@ -954,7 +950,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -967,24 +963,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="2"/>
-    <col min="3" max="4" width="11.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="2"/>
+    <col min="3" max="4" width="11.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.375" customWidth="1"/>
+    <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="16.83203125" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.875" customWidth="1"/>
+    <col min="15" max="15" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1028,13 +1024,13 @@
         <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="P1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="9" customFormat="1">
+    <row r="2" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <v>20160413</v>
       </c>
@@ -1080,7 +1076,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="9" customFormat="1">
+    <row r="3" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>20160413</v>
       </c>
@@ -1126,7 +1122,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="5" customFormat="1">
+    <row r="4" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>20160413</v>
       </c>
@@ -1172,7 +1168,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="13" customFormat="1">
+    <row r="5" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>20160413</v>
       </c>
@@ -1218,7 +1214,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="5" customFormat="1">
+    <row r="6" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>20160413</v>
       </c>
@@ -1264,7 +1260,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="5" customFormat="1">
+    <row r="7" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>20160413</v>
       </c>
@@ -1310,7 +1306,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="5" customFormat="1">
+    <row r="8" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>20160413</v>
       </c>
@@ -1356,7 +1352,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>20160413</v>
       </c>
@@ -1395,7 +1391,7 @@
         <v>7.5423293996921634</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>20160415</v>
       </c>
@@ -1406,7 +1402,7 @@
         <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -1422,7 +1418,7 @@
         <v>13168</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J10">
         <f t="shared" ref="J10" si="6">PRODUCT(F10-I10,G10)</f>
@@ -1430,10 +1426,10 @@
       </c>
       <c r="M10" s="4">
         <f t="shared" si="4"/>
-        <v>11.938031591737545</v>
+        <v>17.891859052247874</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>20160418</v>
       </c>
@@ -1444,7 +1440,7 @@
         <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -1469,10 +1465,10 @@
       </c>
       <c r="M11" s="4">
         <f t="shared" si="4"/>
-        <v>5.102577590741709</v>
+        <v>6.5228826933192972</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>20160420</v>
       </c>
@@ -1483,7 +1479,7 @@
         <v>47</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>59</v>
@@ -1499,7 +1495,7 @@
         <v>33400</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J12">
         <f t="shared" si="8"/>
@@ -1507,10 +1503,10 @@
       </c>
       <c r="M12" s="4">
         <f t="shared" ref="M12" si="9">((D12-F12)/F12)*100</f>
-        <v>10.329341317365278</v>
+        <v>16.197604790419174</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>20160420</v>
       </c>
@@ -1521,7 +1517,7 @@
         <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>62</v>
@@ -1546,10 +1542,10 @@
       </c>
       <c r="M13" s="4">
         <f t="shared" ref="M13:M14" si="13">((D13-F13)/F13)*100</f>
-        <v>0.43859649122806077</v>
+        <v>-5.3508771929824661</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>20160427</v>
       </c>
@@ -1560,10 +1556,10 @@
         <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F14">
         <v>38.26</v>
@@ -1585,13 +1581,13 @@
       </c>
       <c r="M14" s="4">
         <f t="shared" si="13"/>
-        <v>-0.15682174594875894</v>
+        <v>1.4375326711970839</v>
       </c>
       <c r="O14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="18" spans="10:12">
+    <row r="18" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J18">
         <f>SUM(J9:J13)</f>
         <v>14828.399999999998</v>
@@ -1619,7 +1615,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Records/trade.xlsx
+++ b/Records/trade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="39135" yWindow="45" windowWidth="24240" windowHeight="13740"/>
+    <workbookView xWindow="39135" yWindow="45" windowWidth="24240" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="资金" sheetId="1" r:id="rId1"/>
@@ -307,15 +307,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>38.81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20.25</t>
+    <t>37.85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -963,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="M10" s="4">
         <f t="shared" si="4"/>
-        <v>17.891859052247874</v>
+        <v>14.975698663426487</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
@@ -1440,7 +1440,7 @@
         <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="M11" s="4">
         <f t="shared" si="4"/>
-        <v>6.5228826933192972</v>
+        <v>1.683324566017868</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="M12" s="4">
         <f t="shared" ref="M12" si="9">((D12-F12)/F12)*100</f>
-        <v>16.197604790419174</v>
+        <v>13.323353293413181</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
@@ -1517,7 +1517,7 @@
         <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>62</v>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="M13" s="4">
         <f t="shared" ref="M13:M14" si="13">((D13-F13)/F13)*100</f>
-        <v>-5.3508771929824661</v>
+        <v>-3.4210526315789522</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="M14" s="4">
         <f t="shared" si="13"/>
-        <v>1.4375326711970839</v>
+        <v>-1.0716152639832635</v>
       </c>
       <c r="O14" t="s">
         <v>68</v>
@@ -1600,7 +1600,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Records/trade.xlsx
+++ b/Records/trade.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="39135" yWindow="45" windowWidth="24240" windowHeight="13740" activeTab="1"/>
+    <workbookView xWindow="39300" yWindow="0" windowWidth="24240" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="资金" sheetId="1" r:id="rId1"/>
     <sheet name="交易记录" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>月份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,23 +299,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>具体N值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可买入股数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>37.85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.01</t>
+    <t>36.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体N值（用于计算具体股票买入数量）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月同比（百分比）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,8 +398,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -464,8 +470,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="51">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -490,30 +495,33 @@
     <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -601,7 +609,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -880,77 +888,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="37.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>20160401</v>
       </c>
       <c r="B2">
         <v>276000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <f>PRODUCT(B2,0.01)</f>
         <v>2760</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <f>PRODUCT(B2,0.02)</f>
         <v>5520</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <f>PRODUCT(B2,0.06)</f>
         <v>16560</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2.12</v>
       </c>
-      <c r="G2">
-        <f>C2/F2</f>
+      <c r="H2">
+        <f>D2/G2</f>
         <v>1301.8867924528302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>20160501</v>
+      </c>
+      <c r="B3">
+        <v>271560</v>
+      </c>
+      <c r="C3">
+        <f>(B3-B2)/B2*100</f>
+        <v>-1.6086956521739131</v>
+      </c>
+      <c r="D3">
+        <f>PRODUCT(B3,0.01)</f>
+        <v>2715.6</v>
+      </c>
+      <c r="E3">
+        <f>PRODUCT(B3,0.02)</f>
+        <v>5431.2</v>
+      </c>
+      <c r="F3">
+        <f>PRODUCT(B3,0.06)</f>
+        <v>16293.599999999999</v>
+      </c>
+      <c r="G3">
+        <v>2.12</v>
+      </c>
+      <c r="H3">
+        <f>D3/G3</f>
+        <v>1280.943396226415</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -963,24 +1006,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="2"/>
-    <col min="3" max="4" width="11.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.375" customWidth="1"/>
-    <col min="10" max="10" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="2"/>
+    <col min="3" max="4" width="11.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="16.875" customWidth="1"/>
-    <col min="15" max="15" width="13.375" customWidth="1"/>
+    <col min="14" max="14" width="16.83203125" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1030,7 +1073,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="9" customFormat="1">
       <c r="A2" s="9">
         <v>20160413</v>
       </c>
@@ -1076,7 +1119,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" s="9" customFormat="1">
       <c r="A3" s="9">
         <v>20160413</v>
       </c>
@@ -1122,7 +1165,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" s="5" customFormat="1">
       <c r="A4" s="5">
         <v>20160413</v>
       </c>
@@ -1168,7 +1211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" s="13" customFormat="1">
       <c r="A5" s="13">
         <v>20160413</v>
       </c>
@@ -1214,7 +1257,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="5" customFormat="1">
       <c r="A6" s="5">
         <v>20160413</v>
       </c>
@@ -1260,7 +1303,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="5" customFormat="1">
       <c r="A7" s="5">
         <v>20160413</v>
       </c>
@@ -1306,7 +1349,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" s="5" customFormat="1">
       <c r="A8" s="5">
         <v>20160413</v>
       </c>
@@ -1352,7 +1395,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>20160413</v>
       </c>
@@ -1391,7 +1434,7 @@
         <v>7.5423293996921634</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>20160415</v>
       </c>
@@ -1402,7 +1445,7 @@
         <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -1426,10 +1469,10 @@
       </c>
       <c r="M10" s="4">
         <f t="shared" si="4"/>
-        <v>14.975698663426487</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+        <v>10.267314702308612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>20160418</v>
       </c>
@@ -1465,10 +1508,10 @@
       </c>
       <c r="M11" s="4">
         <f t="shared" si="4"/>
-        <v>1.683324566017868</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+        <v>2.3145712782745802</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>20160420</v>
       </c>
@@ -1479,7 +1522,7 @@
         <v>47</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>59</v>
@@ -1503,10 +1546,10 @@
       </c>
       <c r="M12" s="4">
         <f t="shared" ref="M12" si="9">((D12-F12)/F12)*100</f>
-        <v>13.323353293413181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+        <v>8.6826347305389184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>20160420</v>
       </c>
@@ -1517,7 +1560,7 @@
         <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>62</v>
@@ -1542,10 +1585,10 @@
       </c>
       <c r="M13" s="4">
         <f t="shared" ref="M13:M14" si="13">((D13-F13)/F13)*100</f>
-        <v>-3.4210526315789522</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+        <v>-3.3333333333333401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>20160427</v>
       </c>
@@ -1556,7 +1599,7 @@
         <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>63</v>
@@ -1581,13 +1624,13 @@
       </c>
       <c r="M14" s="4">
         <f t="shared" si="13"/>
-        <v>-1.0716152639832635</v>
+        <v>-5.1228437009932071</v>
       </c>
       <c r="O14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="10:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="10:12">
       <c r="J18">
         <f>SUM(J9:J13)</f>
         <v>14828.399999999998</v>
@@ -1600,7 +1643,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1615,7 +1658,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Records/trade.xlsx
+++ b/Records/trade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="39300" yWindow="0" windowWidth="24240" windowHeight="13740"/>
+    <workbookView xWindow="39300" yWindow="0" windowWidth="24240" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="资金" sheetId="1" r:id="rId1"/>
@@ -303,23 +303,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>36.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>具体N值（用于计算具体股票买入数量）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>月同比（百分比）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.99</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -890,7 +890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -914,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -926,7 +926,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H1" t="s">
         <v>69</v>
@@ -1006,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1445,7 +1445,7 @@
         <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="M10" s="4">
         <f t="shared" si="4"/>
-        <v>10.267314702308612</v>
+        <v>12.970838396111773</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1483,7 +1483,7 @@
         <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="M11" s="4">
         <f t="shared" si="4"/>
-        <v>2.3145712782745802</v>
+        <v>4.1031036296685821</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1522,7 +1522,7 @@
         <v>47</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>59</v>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="M12" s="4">
         <f t="shared" ref="M12" si="9">((D12-F12)/F12)*100</f>
-        <v>8.6826347305389184</v>
+        <v>11.347305389221555</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1560,7 +1560,7 @@
         <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>62</v>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="M13" s="4">
         <f t="shared" ref="M13:M14" si="13">((D13-F13)/F13)*100</f>
-        <v>-3.3333333333333401</v>
+        <v>-3.5964912280701768</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1599,7 +1599,7 @@
         <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>63</v>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="M14" s="4">
         <f t="shared" si="13"/>
-        <v>-5.1228437009932071</v>
+        <v>-2.7966544694197606</v>
       </c>
       <c r="O14" t="s">
         <v>68</v>

--- a/Records/trade.xlsx
+++ b/Records/trade.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t>月份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,15 +311,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>37.19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.99</t>
+    <t>38.69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38.69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.65</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1007,7 +1011,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1469,7 +1473,7 @@
       </c>
       <c r="M10" s="4">
         <f t="shared" si="4"/>
-        <v>12.970838396111773</v>
+        <v>17.527339003645189</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1483,7 +1487,7 @@
         <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -1508,7 +1512,7 @@
       </c>
       <c r="M11" s="4">
         <f t="shared" si="4"/>
-        <v>4.1031036296685821</v>
+        <v>7.5749605470804715</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1522,7 +1526,7 @@
         <v>47</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>59</v>
@@ -1546,7 +1550,7 @@
       </c>
       <c r="M12" s="4">
         <f t="shared" ref="M12" si="9">((D12-F12)/F12)*100</f>
-        <v>11.347305389221555</v>
+        <v>15.838323353293413</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1560,7 +1564,7 @@
         <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>62</v>
@@ -1585,7 +1589,7 @@
       </c>
       <c r="M13" s="4">
         <f t="shared" ref="M13:M14" si="13">((D13-F13)/F13)*100</f>
-        <v>-3.5964912280701768</v>
+        <v>-6.5789473684210522</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1599,7 +1603,7 @@
         <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>63</v>
@@ -1624,7 +1628,7 @@
       </c>
       <c r="M14" s="4">
         <f t="shared" si="13"/>
-        <v>-2.7966544694197606</v>
+        <v>1.1238891792995289</v>
       </c>
       <c r="O14" t="s">
         <v>68</v>

--- a/Records/trade.xlsx
+++ b/Records/trade.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>月份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,19 +311,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>38.69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>38.69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20.45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.65</t>
+    <t>37.89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.48</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1011,7 +1007,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1473,7 +1469,7 @@
       </c>
       <c r="M10" s="4">
         <f t="shared" si="4"/>
-        <v>17.527339003645189</v>
+        <v>15.097205346294043</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1512,7 +1508,7 @@
       </c>
       <c r="M11" s="4">
         <f t="shared" si="4"/>
-        <v>7.5749605470804715</v>
+        <v>7.7327722251446547</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1526,7 +1522,7 @@
         <v>47</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>59</v>
@@ -1550,7 +1546,7 @@
       </c>
       <c r="M12" s="4">
         <f t="shared" ref="M12" si="9">((D12-F12)/F12)*100</f>
-        <v>15.838323353293413</v>
+        <v>13.443113772455096</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1564,7 +1560,7 @@
         <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>62</v>
@@ -1589,7 +1585,7 @@
       </c>
       <c r="M13" s="4">
         <f t="shared" ref="M13:M14" si="13">((D13-F13)/F13)*100</f>
-        <v>-6.5789473684210522</v>
+        <v>-6.6666666666666652</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1603,7 +1599,7 @@
         <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>63</v>
@@ -1628,7 +1624,7 @@
       </c>
       <c r="M14" s="4">
         <f t="shared" si="13"/>
-        <v>1.1238891792995289</v>
+        <v>-0.9670674333507514</v>
       </c>
       <c r="O14" t="s">
         <v>68</v>

--- a/Records/trade.xlsx
+++ b/Records/trade.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
   <si>
     <t>月份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,15 +311,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>37.89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20.48</t>
+    <t>9.90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>止损。买入时上涨趋势已经不在，持仓太久了。在趋势已不在（市场没证明这个买入是正确的）应该早点卖出结束交易。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,8 +406,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -470,7 +480,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="53">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -496,6 +506,7 @@
     <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -521,6 +532,7 @@
     <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1007,7 +1019,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1445,7 +1457,7 @@
         <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -1469,7 +1481,7 @@
       </c>
       <c r="M10" s="4">
         <f t="shared" si="4"/>
-        <v>15.097205346294043</v>
+        <v>6.3487241798298788</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1508,7 +1520,7 @@
       </c>
       <c r="M11" s="4">
         <f t="shared" si="4"/>
-        <v>7.7327722251446547</v>
+        <v>1.0520778537611746</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1522,7 +1534,7 @@
         <v>47</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>59</v>
@@ -1546,7 +1558,7 @@
       </c>
       <c r="M12" s="4">
         <f t="shared" ref="M12" si="9">((D12-F12)/F12)*100</f>
-        <v>13.443113772455096</v>
+        <v>4.8203592814371241</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1560,7 +1572,7 @@
         <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>62</v>
@@ -1583,9 +1595,22 @@
         <f t="shared" ref="J13:J14" si="12">PRODUCT(F13-I13,G13)</f>
         <v>5544.0000000000009</v>
       </c>
+      <c r="K13">
+        <v>10.28</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" ref="L13" si="13">(K13-F13)*G13</f>
+        <v>-4704.0000000000045</v>
+      </c>
       <c r="M13" s="4">
-        <f t="shared" ref="M13:M14" si="13">((D13-F13)/F13)*100</f>
-        <v>-6.6666666666666652</v>
+        <f t="shared" ref="M13:M14" si="14">((D13-F13)/F13)*100</f>
+        <v>-13.157894736842104</v>
+      </c>
+      <c r="N13" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1599,7 +1624,7 @@
         <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>63</v>
@@ -1623,8 +1648,8 @@
         <v>5512.0000000000027</v>
       </c>
       <c r="M14" s="4">
-        <f t="shared" si="13"/>
-        <v>-0.9670674333507514</v>
+        <f t="shared" si="14"/>
+        <v>-8.4945112388917927</v>
       </c>
       <c r="O14" t="s">
         <v>68</v>
@@ -1637,7 +1662,7 @@
       </c>
       <c r="L18">
         <f>SUM(L2:L17)</f>
-        <v>-3462.999999999995</v>
+        <v>-8167</v>
       </c>
     </row>
   </sheetData>

--- a/Records/trade.xlsx
+++ b/Records/trade.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="39300" yWindow="0" windowWidth="24240" windowHeight="13740" activeTab="1"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="交易记录" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
   <si>
     <t>月份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,15 +319,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19.21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>止损。买入时上涨趋势已经不在，持仓太久了。在趋势已不在（市场没证明这个买入是正确的）应该早点卖出结束交易。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跌破近十日最低价，退出。操作有点慢，多亏损了几个点。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -335,7 +343,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,6 +396,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -461,7 +477,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -479,8 +495,10 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="53">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -507,33 +525,32 @@
     <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -621,7 +638,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -906,19 +923,19 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="37.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="37.375" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -944,7 +961,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>20160401</v>
       </c>
@@ -971,7 +988,7 @@
         <v>1301.8867924528302</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>20160501</v>
       </c>
@@ -1005,7 +1022,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1019,23 +1036,23 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="2"/>
-    <col min="3" max="4" width="11.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="2"/>
+    <col min="3" max="4" width="11.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.375" customWidth="1"/>
+    <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="16.83203125" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.875" customWidth="1"/>
+    <col min="15" max="15" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1085,7 +1102,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="9" customFormat="1">
+    <row r="2" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <v>20160413</v>
       </c>
@@ -1131,7 +1148,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="9" customFormat="1">
+    <row r="3" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>20160413</v>
       </c>
@@ -1177,7 +1194,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="5" customFormat="1">
+    <row r="4" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>20160413</v>
       </c>
@@ -1223,7 +1240,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="13" customFormat="1">
+    <row r="5" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>20160413</v>
       </c>
@@ -1269,7 +1286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="5" customFormat="1">
+    <row r="6" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>20160413</v>
       </c>
@@ -1315,7 +1332,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="5" customFormat="1">
+    <row r="7" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>20160413</v>
       </c>
@@ -1361,7 +1378,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="5" customFormat="1">
+    <row r="8" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>20160413</v>
       </c>
@@ -1407,7 +1424,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>20160413</v>
       </c>
@@ -1446,7 +1463,7 @@
         <v>7.5423293996921634</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>20160415</v>
       </c>
@@ -1484,7 +1501,7 @@
         <v>6.3487241798298788</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>20160418</v>
       </c>
@@ -1495,7 +1512,7 @@
         <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -1518,12 +1535,25 @@
         <f t="shared" ref="J11:J12" si="8">PRODUCT(F11-I11,G11)</f>
         <v>3839.9999999999964</v>
       </c>
+      <c r="K11" s="17">
+        <v>18.03</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" ref="L11" si="9">(K11-F11)*G11</f>
+        <v>-1960.0000000000009</v>
+      </c>
       <c r="M11" s="4">
         <f t="shared" si="4"/>
-        <v>1.0520778537611746</v>
+        <v>-8.7848500789058459</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>20160420</v>
       </c>
@@ -1557,11 +1587,11 @@
         <v>0</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" ref="M12" si="9">((D12-F12)/F12)*100</f>
+        <f t="shared" ref="M12" si="10">((D12-F12)/F12)*100</f>
         <v>4.8203592814371241</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>20160420</v>
       </c>
@@ -1584,36 +1614,36 @@
         <v>4200</v>
       </c>
       <c r="H13">
-        <f t="shared" ref="H13:H14" si="10">PRODUCT(F13,G13)</f>
+        <f t="shared" ref="H13:H14" si="11">PRODUCT(F13,G13)</f>
         <v>47880</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" ref="I13:I14" si="11">F13-E13*2</f>
+        <f t="shared" ref="I13:I14" si="12">F13-E13*2</f>
         <v>10.08</v>
       </c>
       <c r="J13">
-        <f t="shared" ref="J13:J14" si="12">PRODUCT(F13-I13,G13)</f>
+        <f t="shared" ref="J13:J14" si="13">PRODUCT(F13-I13,G13)</f>
         <v>5544.0000000000009</v>
       </c>
       <c r="K13">
         <v>10.28</v>
       </c>
       <c r="L13" s="5">
-        <f t="shared" ref="L13" si="13">(K13-F13)*G13</f>
+        <f t="shared" ref="L13" si="14">(K13-F13)*G13</f>
         <v>-4704.0000000000045</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" ref="M13:M14" si="14">((D13-F13)/F13)*100</f>
+        <f t="shared" ref="M13:M14" si="15">((D13-F13)/F13)*100</f>
         <v>-13.157894736842104</v>
       </c>
       <c r="N13" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" t="s">
         <v>75</v>
       </c>
-      <c r="P13" t="s">
-        <v>76</v>
-      </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>20160427</v>
       </c>
@@ -1636,33 +1666,33 @@
         <v>1300</v>
       </c>
       <c r="H14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>49738</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>34.019999999999996</v>
       </c>
       <c r="J14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5512.0000000000027</v>
       </c>
       <c r="M14" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-8.4945112388917927</v>
       </c>
       <c r="O14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="10:12">
+    <row r="18" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J18">
         <f>SUM(J9:J13)</f>
         <v>14828.399999999998</v>
       </c>
       <c r="L18">
         <f>SUM(L2:L17)</f>
-        <v>-8167</v>
+        <v>-10127</v>
       </c>
     </row>
   </sheetData>
@@ -1683,7 +1713,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Records/trade.xlsx
+++ b/Records/trade.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="39300" yWindow="0" windowWidth="24240" windowHeight="13740" activeTab="1"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="交易记录" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>月份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,6 +336,26 @@
   </si>
   <si>
     <t>跌破近十日最低价，退出。操作有点慢，多亏损了几个点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00078</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海王生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -343,7 +363,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,14 +416,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -422,7 +434,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -476,8 +488,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -495,10 +513,8 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="53">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="59">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -525,32 +541,39 @@
     <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -638,7 +661,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -923,19 +946,19 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="37.375" customWidth="1"/>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="37.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -961,7 +984,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>20160401</v>
       </c>
@@ -988,7 +1011,7 @@
         <v>1301.8867924528302</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>20160501</v>
       </c>
@@ -1022,7 +1045,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1036,23 +1059,23 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="2"/>
-    <col min="3" max="4" width="11.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.375" customWidth="1"/>
-    <col min="10" max="10" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="2"/>
+    <col min="3" max="4" width="11.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="16.875" customWidth="1"/>
-    <col min="15" max="15" width="13.375" customWidth="1"/>
+    <col min="14" max="14" width="16.83203125" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1102,7 +1125,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="9" customFormat="1">
       <c r="A2" s="9">
         <v>20160413</v>
       </c>
@@ -1133,14 +1156,13 @@
         <v>11.48</v>
       </c>
       <c r="J2" s="9">
-        <f t="shared" ref="J2:J9" si="2">PRODUCT(F2-I2,G2)</f>
-        <v>2414</v>
+        <v>0</v>
       </c>
       <c r="K2" s="9">
         <v>12.93</v>
       </c>
       <c r="L2" s="9">
-        <f t="shared" ref="L2:L8" si="3">(K2-F2)*G2</f>
+        <f t="shared" ref="L2:L8" si="2">(K2-F2)*G2</f>
         <v>50.999999999998913</v>
       </c>
       <c r="M2" s="12"/>
@@ -1148,7 +1170,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" s="9" customFormat="1">
       <c r="A3" s="9">
         <v>20160413</v>
       </c>
@@ -1179,14 +1201,13 @@
         <v>6.65</v>
       </c>
       <c r="J3" s="9">
-        <f t="shared" si="2"/>
-        <v>2279.9999999999995</v>
+        <v>0</v>
       </c>
       <c r="K3" s="9">
         <v>8.52</v>
       </c>
       <c r="L3" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3329.9999999999982</v>
       </c>
       <c r="M3" s="12"/>
@@ -1194,7 +1215,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" s="5" customFormat="1">
       <c r="A4" s="5">
         <v>20160413</v>
       </c>
@@ -1225,14 +1246,13 @@
         <v>32.97</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" si="2"/>
-        <v>3250</v>
+        <v>0</v>
       </c>
       <c r="K4" s="5">
         <v>33.020000000000003</v>
       </c>
       <c r="L4" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-3184.9999999999945</v>
       </c>
       <c r="M4" s="8"/>
@@ -1240,7 +1260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" s="13" customFormat="1">
       <c r="A5" s="13">
         <v>20160413</v>
       </c>
@@ -1271,14 +1291,13 @@
         <v>12.360000000000001</v>
       </c>
       <c r="J5" s="13">
-        <f t="shared" si="2"/>
-        <v>1221.9999999999993</v>
+        <v>0</v>
       </c>
       <c r="K5" s="13">
         <v>13.31</v>
       </c>
       <c r="L5" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12.999999999999723</v>
       </c>
       <c r="M5" s="16"/>
@@ -1286,7 +1305,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="5" customFormat="1">
       <c r="A6" s="5">
         <v>20160413</v>
       </c>
@@ -1317,14 +1336,14 @@
         <v>22.32</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J2:J9" si="3">PRODUCT(F6-I6,G6)</f>
         <v>2079.9999999999982</v>
       </c>
       <c r="K6" s="5">
         <v>22.93</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1469.9999999999989</v>
       </c>
       <c r="M6" s="8"/>
@@ -1332,7 +1351,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="5" customFormat="1">
       <c r="A7" s="5">
         <v>20160413</v>
       </c>
@@ -1363,14 +1382,13 @@
         <v>41.39</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" si="2"/>
-        <v>2892</v>
+        <v>0</v>
       </c>
       <c r="K7" s="5">
         <v>42.64</v>
       </c>
       <c r="L7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-2142</v>
       </c>
       <c r="M7" s="8"/>
@@ -1378,7 +1396,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" s="5" customFormat="1">
       <c r="A8" s="5">
         <v>20160413</v>
       </c>
@@ -1409,14 +1427,13 @@
         <v>15.1</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="2"/>
-        <v>1560.0000000000005</v>
+        <v>0</v>
       </c>
       <c r="K8" s="5">
         <v>16.600000000000001</v>
       </c>
       <c r="L8" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-59.999999999998721</v>
       </c>
       <c r="M8" s="8"/>
@@ -1424,7 +1441,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>20160413</v>
       </c>
@@ -1455,7 +1472,7 @@
         <v>15.829999999999998</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5636.4000000000005</v>
       </c>
       <c r="M9" s="4">
@@ -1463,7 +1480,7 @@
         <v>7.5423293996921634</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>20160415</v>
       </c>
@@ -1501,59 +1518,58 @@
         <v>6.3487241798298788</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11">
+    <row r="11" spans="1:16" s="5" customFormat="1">
+      <c r="A11" s="5">
         <v>20160418</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <v>19.010000000000002</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="5">
         <v>2000</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="5">
         <f t="shared" ref="H11:H12" si="7">PRODUCT(F11,G11)</f>
         <v>38020</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="7">
         <f t="shared" si="1"/>
         <v>17.090000000000003</v>
       </c>
-      <c r="J11">
-        <f t="shared" ref="J11:J12" si="8">PRODUCT(F11-I11,G11)</f>
-        <v>3839.9999999999964</v>
-      </c>
-      <c r="K11" s="17">
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
         <v>18.03</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" ref="L11" si="9">(K11-F11)*G11</f>
+        <f t="shared" ref="L11" si="8">(K11-F11)*G11</f>
         <v>-1960.0000000000009</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="8">
         <f t="shared" si="4"/>
         <v>-8.7848500789058459</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>20160420</v>
       </c>
@@ -1583,7 +1599,7 @@
         <v>64</v>
       </c>
       <c r="J12">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="J11:J12" si="9">PRODUCT(F12-I12,G12)</f>
         <v>0</v>
       </c>
       <c r="M12" s="4">
@@ -1591,59 +1607,59 @@
         <v>4.8203592814371241</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13">
+    <row r="13" spans="1:16" s="5" customFormat="1">
+      <c r="A13" s="5">
         <v>20160420</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="5">
         <v>11.4</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="5">
         <v>4200</v>
       </c>
-      <c r="H13">
-        <f t="shared" ref="H13:H14" si="11">PRODUCT(F13,G13)</f>
+      <c r="H13" s="5">
+        <f t="shared" ref="H13:H15" si="11">PRODUCT(F13,G13)</f>
         <v>47880</v>
       </c>
-      <c r="I13" s="3">
-        <f t="shared" ref="I13:I14" si="12">F13-E13*2</f>
+      <c r="I13" s="7">
+        <f t="shared" ref="I13:I15" si="12">F13-E13*2</f>
         <v>10.08</v>
       </c>
-      <c r="J13">
-        <f t="shared" ref="J13:J14" si="13">PRODUCT(F13-I13,G13)</f>
+      <c r="J13" s="5">
+        <f t="shared" ref="J13:J15" si="13">PRODUCT(F13-I13,G13)</f>
         <v>5544.0000000000009</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="5">
         <v>10.28</v>
       </c>
       <c r="L13" s="5">
-        <f t="shared" ref="L13" si="14">(K13-F13)*G13</f>
+        <f t="shared" ref="L13:L15" si="14">(K13-F13)*G13</f>
         <v>-4704.0000000000045</v>
       </c>
-      <c r="M13" s="4">
-        <f t="shared" ref="M13:M14" si="15">((D13-F13)/F13)*100</f>
+      <c r="M13" s="8">
+        <f t="shared" ref="M13:M15" si="15">((D13-F13)/F13)*100</f>
         <v>-13.157894736842104</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>20160427</v>
       </c>
@@ -1685,10 +1701,53 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="10:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>20160516</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15">
+        <v>19.66</v>
+      </c>
+      <c r="G15">
+        <v>2000</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="11"/>
+        <v>39320</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="12"/>
+        <v>17.88</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="13"/>
+        <v>3560.0000000000023</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="4">
+        <f t="shared" si="15"/>
+        <v>1.7293997965411996</v>
+      </c>
+      <c r="O15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="10:12">
       <c r="J18">
         <f>SUM(J9:J13)</f>
-        <v>14828.399999999998</v>
+        <v>10988.400000000001</v>
       </c>
       <c r="L18">
         <f>SUM(L2:L17)</f>
@@ -1713,7 +1772,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
